--- a/output/xlsx/Obter trajetos entre duas estacoes--GT-.xlsx
+++ b/output/xlsx/Obter trajetos entre duas estacoes--GT-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="53">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t xml:space="preserve">0.3	</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -41,7 +41,7 @@
     <t>Reduced (Greedy Heuristic - Transition Coverage)</t>
   </si>
   <si>
-    <t>Size: 5 test case(s))</t>
+    <t>Size: 9 test case(s))</t>
   </si>
   <si>
     <t xml:space="preserve">Creation Date: </t>
@@ -98,64 +98,79 @@
     <t>SYSTEM o sistema pergunta qual a estacao de origem</t>
   </si>
   <si>
+    <t>Underground User o usuario digita o nome da estacao de origem</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema volta a perguntar o nome da estacao</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema pergunta qual a estacao de destino</t>
+  </si>
+  <si>
+    <t>Underground User o usuario digita o nome da estacao de destino</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema pergunta o numero de trajetos para exibir</t>
+  </si>
+  <si>
+    <t>Underground User o usuario digita o numero de trajetos para exibir</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema pergunta se o usuario quer excluir alguma linha</t>
+  </si>
+  <si>
+    <t>Underground User o usuario digita S</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema pergunta o nome da estacao a ser excluida</t>
+  </si>
+  <si>
+    <t>Underground User o usuario digita o nome da estacao a ser excluida</t>
+  </si>
+  <si>
+    <t>SYSTEM o sistema mostra os trajetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcondition: </t>
+  </si>
+  <si>
+    <t>o menu principal esta sendo mostrado na interface</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Underground User o usuario aperta esc</t>
   </si>
   <si>
-    <t>Underground User o usuario digita o nome da estacao de origem</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema volta a perguntar o nome da estacao</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema pergunta qual a estacao de destino</t>
-  </si>
-  <si>
-    <t>Underground User o usuario digita o nome da estacao de destino</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema pergunta o numero de trajetos para exibir</t>
-  </si>
-  <si>
-    <t>Underground User o usuario digita o numero de trajetos para exibir</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema pergunta se o usuario quer excluir alguma linha</t>
-  </si>
-  <si>
-    <t>Underground User o usuario digita S</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema pergunta o nome da estacao a ser excluida</t>
-  </si>
-  <si>
-    <t>Underground User o usuario digita o nome da estacao a ser excluida</t>
-  </si>
-  <si>
-    <t>SYSTEM o sistema mostra os trajetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcondition: </t>
-  </si>
-  <si>
-    <t>o menu principal esta sendo mostrado na interface</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
+    <t>SYSTEM a operacao eh cancelada</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
   </si>
   <si>
     <t>Underground User o usuario digita N</t>
   </si>
   <si>
-    <t>TC4</t>
+    <t>TC8</t>
   </si>
   <si>
     <t xml:space="preserve">Underground User o usuario digita S ou N </t>
   </si>
   <si>
-    <t>TC5</t>
+    <t>TC9</t>
   </si>
 </sst>
 </file>
@@ -351,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -537,20 +552,48 @@
       <c r="C11" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="12"/>
+      <c r="D11" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D13" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s" s="6">
         <v>2</v>
@@ -561,16 +604,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D14" t="s" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s" s="6">
         <v>2</v>
@@ -581,16 +624,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D15" t="s" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s" s="6">
         <v>2</v>
@@ -601,218 +644,218 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="10">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D16" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B24" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="E16" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B17" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B18" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B19" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B20" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s" s="9">
+      <c r="E25" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s" s="8">
+      <c r="A26" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B26" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s" s="5">
-        <v>25</v>
+      <c r="A27" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="10">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s" s="6">
         <v>2</v>
@@ -823,16 +866,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="10">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D29" t="s" s="7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>2</v>
@@ -843,120 +886,138 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="10">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31"/>
-    <row r="32">
-      <c r="A32" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E32" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34"/>
+      <c r="D30" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="35">
-      <c r="A35" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s" s="6">
+      <c r="A35" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="6">
+      <c r="A36" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s" s="6">
-        <v>2</v>
+      <c r="A37" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="10">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -966,191 +1027,219 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41"/>
+      <c r="A39" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B40" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B41" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B43" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B42" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s" s="4">
+      <c r="B47" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D42" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s" s="4">
+      <c r="D47" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F42" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="9">
+      <c r="F47" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s" s="9">
+      <c r="B48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F43" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="8">
+      <c r="F48" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B49" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="5">
+      <c r="C49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B50" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C50" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D50" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E50" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F50" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B47" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E47" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B48" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E48" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B49" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50"/>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1161,7 +1250,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>28</v>
@@ -1169,20 +1258,48 @@
       <c r="C52" t="s" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="53"/>
+      <c r="D52" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="54">
       <c r="A54" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B54" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>29</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E54" t="s" s="6">
         <v>2</v>
@@ -1193,16 +1310,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s" s="6">
         <v>2</v>
@@ -1213,41 +1330,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B56" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B57" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="7">
         <v>44</v>
       </c>
-      <c r="C56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E56" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s" s="8">
+      <c r="E57" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1258,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s" s="4">
         <v>14</v>
@@ -1358,13 +1475,13 @@
         <v>2.0</v>
       </c>
       <c r="B65" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s" s="7">
         <v>29</v>
-      </c>
-      <c r="C65" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>31</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1378,13 +1495,13 @@
         <v>3.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>2</v>
@@ -1393,110 +1510,100 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69">
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="70">
-      <c r="A70" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B70" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s" s="6">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B71" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="6">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1507,16 +1614,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n" s="10">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D74" t="s" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s" s="6">
         <v>2</v>
@@ -1526,199 +1633,199 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
+      <c r="A75" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B78" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="C78" t="s" s="4">
+      <c r="B82" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D78" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="4">
+      <c r="D82" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F78" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="9">
+      <c r="F82" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="9">
+      <c r="B83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F79" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="8">
+      <c r="F83" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B80" t="s" s="8">
+      <c r="B84" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="5">
+      <c r="C84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B81" t="s" s="5">
+      <c r="B85" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C81" t="s" s="5">
+      <c r="C85" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D81" t="s" s="5">
+      <c r="D85" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E81" t="s" s="5">
+      <c r="E85" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F81" t="s" s="5">
+      <c r="F85" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B82" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B83" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B84" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1729,16 +1836,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1749,16 +1856,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>2</v>
@@ -1769,16 +1876,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -1789,11 +1896,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="B90" t="s" s="8">
-        <v>41</v>
-      </c>
       <c r="C90" t="s" s="8">
         <v>2</v>
       </c>
@@ -1804,6 +1911,490 @@
         <v>2</v>
       </c>
       <c r="F90" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93">
+      <c r="A93" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F93" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F96" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E98" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E99" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E100" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B102" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E102" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B103" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E103" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F107" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E110" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="E116" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1812,19 +2403,27 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:F49"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:F84"/>
     <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B118:F118"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
